--- a/5月对账单/5月销售退货单（分销商）.xlsx
+++ b/5月对账单/5月销售退货单（分销商）.xlsx
@@ -64,22 +64,22 @@
     <t>退货数量</t>
   </si>
   <si>
+    <t>售价</t>
+  </si>
+  <si>
+    <t>申请金额</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>进仓时间</t>
+  </si>
+  <si>
     <t>单价</t>
-  </si>
-  <si>
-    <t>申请金额</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>进仓时间</t>
-  </si>
-  <si>
-    <t>单价.1</t>
   </si>
   <si>
     <t>折扣</t>
@@ -899,6 +899,9 @@
       <c r="P2">
         <v>1</v>
       </c>
+      <c r="Q2">
+        <v>126.4</v>
+      </c>
       <c r="R2">
         <v>126.4</v>
       </c>
@@ -910,6 +913,21 @@
       </c>
       <c r="U2" t="s">
         <v>107</v>
+      </c>
+      <c r="V2">
+        <v>158</v>
+      </c>
+      <c r="W2">
+        <v>0.8</v>
+      </c>
+      <c r="X2">
+        <v>126.4</v>
+      </c>
+      <c r="Y2">
+        <v>126.4</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -961,6 +979,9 @@
       <c r="P3">
         <v>1</v>
       </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
       <c r="R3">
         <v>0</v>
       </c>
@@ -972,6 +993,21 @@
       </c>
       <c r="U3" t="s">
         <v>107</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.8</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -1023,6 +1059,9 @@
       <c r="P4">
         <v>1</v>
       </c>
+      <c r="Q4">
+        <v>118.4</v>
+      </c>
       <c r="R4">
         <v>118.4</v>
       </c>
@@ -1034,6 +1073,21 @@
       </c>
       <c r="U4" t="s">
         <v>108</v>
+      </c>
+      <c r="V4">
+        <v>148</v>
+      </c>
+      <c r="W4">
+        <v>0.8</v>
+      </c>
+      <c r="X4">
+        <v>118.4</v>
+      </c>
+      <c r="Y4">
+        <v>118.4</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1085,6 +1139,9 @@
       <c r="P5">
         <v>1</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
       <c r="R5">
         <v>0</v>
       </c>
@@ -1096,6 +1153,21 @@
       </c>
       <c r="U5" t="s">
         <v>108</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.8</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1147,6 +1219,9 @@
       <c r="P6">
         <v>1</v>
       </c>
+      <c r="Q6">
+        <v>118.4</v>
+      </c>
       <c r="R6">
         <v>118.4</v>
       </c>
@@ -1158,6 +1233,21 @@
       </c>
       <c r="U6" t="s">
         <v>109</v>
+      </c>
+      <c r="V6">
+        <v>148</v>
+      </c>
+      <c r="W6">
+        <v>0.8</v>
+      </c>
+      <c r="X6">
+        <v>118.4</v>
+      </c>
+      <c r="Y6">
+        <v>118.4</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1209,6 +1299,9 @@
       <c r="P7">
         <v>1</v>
       </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
       <c r="R7">
         <v>0</v>
       </c>
@@ -1220,6 +1313,21 @@
       </c>
       <c r="U7" t="s">
         <v>109</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.8</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1271,6 +1379,9 @@
       <c r="P8">
         <v>1</v>
       </c>
+      <c r="Q8">
+        <v>118.4</v>
+      </c>
       <c r="R8">
         <v>118.4</v>
       </c>
@@ -1282,6 +1393,21 @@
       </c>
       <c r="U8" t="s">
         <v>110</v>
+      </c>
+      <c r="V8">
+        <v>148</v>
+      </c>
+      <c r="W8">
+        <v>0.8</v>
+      </c>
+      <c r="X8">
+        <v>118.4</v>
+      </c>
+      <c r="Y8">
+        <v>118.4</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1333,6 +1459,9 @@
       <c r="P9">
         <v>0</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="R9">
         <v>0</v>
       </c>
@@ -1341,6 +1470,21 @@
       </c>
       <c r="T9" t="s">
         <v>106</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.8</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1392,6 +1536,9 @@
       <c r="P10">
         <v>1</v>
       </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
       <c r="R10">
         <v>0</v>
       </c>
@@ -1403,6 +1550,21 @@
       </c>
       <c r="U10" t="s">
         <v>110</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.8</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1454,6 +1616,9 @@
       <c r="P11">
         <v>1</v>
       </c>
+      <c r="Q11">
+        <v>118.4</v>
+      </c>
       <c r="R11">
         <v>118.4</v>
       </c>
@@ -1465,6 +1630,21 @@
       </c>
       <c r="U11" t="s">
         <v>111</v>
+      </c>
+      <c r="V11">
+        <v>148</v>
+      </c>
+      <c r="W11">
+        <v>0.8</v>
+      </c>
+      <c r="X11">
+        <v>118.4</v>
+      </c>
+      <c r="Y11">
+        <v>118.4</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1516,6 +1696,9 @@
       <c r="P12">
         <v>1</v>
       </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
       <c r="R12">
         <v>0</v>
       </c>
@@ -1527,6 +1710,21 @@
       </c>
       <c r="U12" t="s">
         <v>111</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0.8</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1578,6 +1776,9 @@
       <c r="P13">
         <v>1</v>
       </c>
+      <c r="Q13">
+        <v>103.2</v>
+      </c>
       <c r="R13">
         <v>103.2</v>
       </c>
@@ -1589,6 +1790,21 @@
       </c>
       <c r="U13" t="s">
         <v>112</v>
+      </c>
+      <c r="V13">
+        <v>129</v>
+      </c>
+      <c r="W13">
+        <v>0.8</v>
+      </c>
+      <c r="X13">
+        <v>103.2</v>
+      </c>
+      <c r="Y13">
+        <v>103.2</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1640,6 +1856,9 @@
       <c r="P14">
         <v>1</v>
       </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
       <c r="R14">
         <v>0</v>
       </c>
@@ -1651,6 +1870,21 @@
       </c>
       <c r="U14" t="s">
         <v>112</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.8</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1702,6 +1936,9 @@
       <c r="P15">
         <v>1</v>
       </c>
+      <c r="Q15">
+        <v>126.4</v>
+      </c>
       <c r="R15">
         <v>126.4</v>
       </c>
@@ -1713,6 +1950,21 @@
       </c>
       <c r="U15" t="s">
         <v>113</v>
+      </c>
+      <c r="V15">
+        <v>158</v>
+      </c>
+      <c r="W15">
+        <v>0.8</v>
+      </c>
+      <c r="X15">
+        <v>126.4</v>
+      </c>
+      <c r="Y15">
+        <v>126.4</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1764,6 +2016,9 @@
       <c r="P16">
         <v>1</v>
       </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
       <c r="R16">
         <v>0</v>
       </c>
@@ -1776,8 +2031,23 @@
       <c r="U16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.8</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>1241040442</v>
       </c>
@@ -1826,6 +2096,9 @@
       <c r="P17">
         <v>1</v>
       </c>
+      <c r="Q17">
+        <v>118.4</v>
+      </c>
       <c r="R17">
         <v>118.4</v>
       </c>
@@ -1838,8 +2111,23 @@
       <c r="U17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>148</v>
+      </c>
+      <c r="W17">
+        <v>0.8</v>
+      </c>
+      <c r="X17">
+        <v>118.4</v>
+      </c>
+      <c r="Y17">
+        <v>118.4</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>1241040442</v>
       </c>
@@ -1888,6 +2176,9 @@
       <c r="P18">
         <v>1</v>
       </c>
+      <c r="Q18">
+        <v>134.4</v>
+      </c>
       <c r="R18">
         <v>134.4</v>
       </c>
@@ -1900,8 +2191,23 @@
       <c r="U18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>168</v>
+      </c>
+      <c r="W18">
+        <v>0.8</v>
+      </c>
+      <c r="X18">
+        <v>134.4</v>
+      </c>
+      <c r="Y18">
+        <v>134.4</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>1241040442</v>
       </c>
@@ -1950,6 +2256,9 @@
       <c r="P19">
         <v>2</v>
       </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
       <c r="R19">
         <v>0</v>
       </c>
@@ -1962,8 +2271,23 @@
       <c r="U19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.8</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>1241040431</v>
       </c>
@@ -2012,6 +2336,9 @@
       <c r="P20">
         <v>1</v>
       </c>
+      <c r="Q20">
+        <v>118.4</v>
+      </c>
       <c r="R20">
         <v>118.4</v>
       </c>
@@ -2024,8 +2351,23 @@
       <c r="U20" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>148</v>
+      </c>
+      <c r="W20">
+        <v>0.8</v>
+      </c>
+      <c r="X20">
+        <v>118.4</v>
+      </c>
+      <c r="Y20">
+        <v>118.4</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>1241040431</v>
       </c>
@@ -2074,6 +2416,9 @@
       <c r="P21">
         <v>1</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2086,8 +2431,23 @@
       <c r="U21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.8</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>1241040394</v>
       </c>
@@ -2136,6 +2496,9 @@
       <c r="P22">
         <v>1</v>
       </c>
+      <c r="Q22">
+        <v>118.4</v>
+      </c>
       <c r="R22">
         <v>118.4</v>
       </c>
@@ -2148,8 +2511,23 @@
       <c r="U22" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>148</v>
+      </c>
+      <c r="W22">
+        <v>0.8</v>
+      </c>
+      <c r="X22">
+        <v>118.4</v>
+      </c>
+      <c r="Y22">
+        <v>118.4</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>1241040394</v>
       </c>
@@ -2198,6 +2576,9 @@
       <c r="P23">
         <v>1</v>
       </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -2210,8 +2591,23 @@
       <c r="U23" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.8</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>1241040384</v>
       </c>
@@ -2260,6 +2656,9 @@
       <c r="P24">
         <v>1</v>
       </c>
+      <c r="Q24">
+        <v>118.4</v>
+      </c>
       <c r="R24">
         <v>118.4</v>
       </c>
@@ -2272,8 +2671,23 @@
       <c r="U24" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>148</v>
+      </c>
+      <c r="W24">
+        <v>0.8</v>
+      </c>
+      <c r="X24">
+        <v>118.4</v>
+      </c>
+      <c r="Y24">
+        <v>118.4</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>1241040384</v>
       </c>
@@ -2322,6 +2736,9 @@
       <c r="P25">
         <v>1</v>
       </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
       <c r="R25">
         <v>0</v>
       </c>
@@ -2334,8 +2751,23 @@
       <c r="U25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0.8</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>1241040210</v>
       </c>
@@ -2384,6 +2816,9 @@
       <c r="P26">
         <v>1</v>
       </c>
+      <c r="Q26">
+        <v>118.4</v>
+      </c>
       <c r="R26">
         <v>118.4</v>
       </c>
@@ -2396,8 +2831,23 @@
       <c r="U26" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26">
+        <v>148</v>
+      </c>
+      <c r="W26">
+        <v>0.8</v>
+      </c>
+      <c r="X26">
+        <v>118.4</v>
+      </c>
+      <c r="Y26">
+        <v>118.4</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>1241040210</v>
       </c>
@@ -2446,6 +2896,9 @@
       <c r="P27">
         <v>1</v>
       </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
       <c r="R27">
         <v>0</v>
       </c>
@@ -2458,8 +2911,23 @@
       <c r="U27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.8</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>1241040142</v>
       </c>
@@ -2508,6 +2976,9 @@
       <c r="P28">
         <v>0</v>
       </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
       <c r="R28">
         <v>0</v>
       </c>
@@ -2517,8 +2988,23 @@
       <c r="T28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0.8</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>1241040142</v>
       </c>
@@ -2567,6 +3053,9 @@
       <c r="P29">
         <v>1</v>
       </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
       <c r="R29">
         <v>0</v>
       </c>
@@ -2579,8 +3068,23 @@
       <c r="U29" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0.8</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>1241040142</v>
       </c>
@@ -2629,6 +3133,9 @@
       <c r="P30">
         <v>1</v>
       </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
       <c r="R30">
         <v>0</v>
       </c>
@@ -2641,8 +3148,23 @@
       <c r="U30" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0.8</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>1241040142</v>
       </c>
@@ -2691,6 +3213,9 @@
       <c r="P31">
         <v>1</v>
       </c>
+      <c r="Q31">
+        <v>118.4</v>
+      </c>
       <c r="R31">
         <v>118.4</v>
       </c>
@@ -2703,8 +3228,23 @@
       <c r="U31" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31">
+        <v>148</v>
+      </c>
+      <c r="W31">
+        <v>0.8</v>
+      </c>
+      <c r="X31">
+        <v>118.4</v>
+      </c>
+      <c r="Y31">
+        <v>118.4</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>1241040071</v>
       </c>
@@ -2753,6 +3293,9 @@
       <c r="P32">
         <v>1</v>
       </c>
+      <c r="Q32">
+        <v>134.4</v>
+      </c>
       <c r="R32">
         <v>134.4</v>
       </c>
@@ -2765,8 +3308,23 @@
       <c r="U32" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32">
+        <v>168</v>
+      </c>
+      <c r="W32">
+        <v>0.8</v>
+      </c>
+      <c r="X32">
+        <v>134.4</v>
+      </c>
+      <c r="Y32">
+        <v>134.4</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>1241040071</v>
       </c>
@@ -2815,6 +3373,9 @@
       <c r="P33">
         <v>1</v>
       </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
       <c r="R33">
         <v>0</v>
       </c>
@@ -2827,8 +3388,23 @@
       <c r="U33" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.8</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>1241040048</v>
       </c>
@@ -2877,6 +3453,9 @@
       <c r="P34">
         <v>1</v>
       </c>
+      <c r="Q34">
+        <v>118.4</v>
+      </c>
       <c r="R34">
         <v>118.4</v>
       </c>
@@ -2889,8 +3468,23 @@
       <c r="U34" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34">
+        <v>148</v>
+      </c>
+      <c r="W34">
+        <v>0.8</v>
+      </c>
+      <c r="X34">
+        <v>118.4</v>
+      </c>
+      <c r="Y34">
+        <v>118.4</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>1241040048</v>
       </c>
@@ -2939,6 +3533,9 @@
       <c r="P35">
         <v>1</v>
       </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
       <c r="R35">
         <v>0</v>
       </c>
@@ -2951,8 +3548,23 @@
       <c r="U35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.8</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>1241018707</v>
       </c>
@@ -3001,6 +3613,9 @@
       <c r="P36">
         <v>1</v>
       </c>
+      <c r="Q36">
+        <v>90.3</v>
+      </c>
       <c r="R36">
         <v>90.3</v>
       </c>
@@ -3013,8 +3628,23 @@
       <c r="U36" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36">
+        <v>129</v>
+      </c>
+      <c r="W36">
+        <v>0.7</v>
+      </c>
+      <c r="X36">
+        <v>90.3</v>
+      </c>
+      <c r="Y36">
+        <v>90.3</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>1241018707</v>
       </c>
@@ -3063,6 +3693,9 @@
       <c r="P37">
         <v>1</v>
       </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
       <c r="R37">
         <v>0</v>
       </c>
@@ -3075,8 +3708,23 @@
       <c r="U37" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0.7</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>1241018702</v>
       </c>
@@ -3125,6 +3773,9 @@
       <c r="P38">
         <v>1</v>
       </c>
+      <c r="Q38">
+        <v>103.6</v>
+      </c>
       <c r="R38">
         <v>103.6</v>
       </c>
@@ -3137,8 +3788,23 @@
       <c r="U38" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38">
+        <v>148</v>
+      </c>
+      <c r="W38">
+        <v>0.7</v>
+      </c>
+      <c r="X38">
+        <v>103.6</v>
+      </c>
+      <c r="Y38">
+        <v>103.6</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>1241018702</v>
       </c>
@@ -3187,6 +3853,9 @@
       <c r="P39">
         <v>1</v>
       </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
       <c r="R39">
         <v>0</v>
       </c>
@@ -3199,8 +3868,23 @@
       <c r="U39" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.7</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>1241018694</v>
       </c>
@@ -3249,6 +3933,9 @@
       <c r="P40">
         <v>1</v>
       </c>
+      <c r="Q40">
+        <v>13.86</v>
+      </c>
       <c r="R40">
         <v>13.86</v>
       </c>
@@ -3261,8 +3948,23 @@
       <c r="U40" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40">
+        <v>19.8</v>
+      </c>
+      <c r="W40">
+        <v>0.7</v>
+      </c>
+      <c r="X40">
+        <v>13.86</v>
+      </c>
+      <c r="Y40">
+        <v>13.86</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>1241018694</v>
       </c>
@@ -3311,6 +4013,9 @@
       <c r="P41">
         <v>1</v>
       </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
       <c r="R41">
         <v>0</v>
       </c>
@@ -3323,8 +4028,23 @@
       <c r="U41" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0.7</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42">
         <v>1241018690</v>
       </c>
@@ -3373,6 +4093,9 @@
       <c r="P42">
         <v>1</v>
       </c>
+      <c r="Q42">
+        <v>90.3</v>
+      </c>
       <c r="R42">
         <v>90.3</v>
       </c>
@@ -3385,8 +4108,23 @@
       <c r="U42" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42">
+        <v>129</v>
+      </c>
+      <c r="W42">
+        <v>0.7</v>
+      </c>
+      <c r="X42">
+        <v>90.3</v>
+      </c>
+      <c r="Y42">
+        <v>90.3</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43">
         <v>1241018690</v>
       </c>
@@ -3435,6 +4173,9 @@
       <c r="P43">
         <v>1</v>
       </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
       <c r="R43">
         <v>0</v>
       </c>
@@ -3447,8 +4188,23 @@
       <c r="U43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.7</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44">
         <v>1240897705</v>
       </c>
@@ -3497,6 +4253,9 @@
       <c r="P44">
         <v>1</v>
       </c>
+      <c r="Q44">
+        <v>118.4</v>
+      </c>
       <c r="R44">
         <v>118.4</v>
       </c>
@@ -3509,8 +4268,23 @@
       <c r="U44" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44">
+        <v>148</v>
+      </c>
+      <c r="W44">
+        <v>0.8</v>
+      </c>
+      <c r="X44">
+        <v>118.4</v>
+      </c>
+      <c r="Y44">
+        <v>118.4</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45">
         <v>1240897705</v>
       </c>
@@ -3559,6 +4333,9 @@
       <c r="P45">
         <v>1</v>
       </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
       <c r="R45">
         <v>0</v>
       </c>
@@ -3571,8 +4348,23 @@
       <c r="U45" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0.8</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>1240793617</v>
       </c>
@@ -3621,6 +4413,9 @@
       <c r="P46">
         <v>1</v>
       </c>
+      <c r="Q46">
+        <v>126.4</v>
+      </c>
       <c r="R46">
         <v>126.4</v>
       </c>
@@ -3633,8 +4428,23 @@
       <c r="U46" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46">
+        <v>158</v>
+      </c>
+      <c r="W46">
+        <v>0.8</v>
+      </c>
+      <c r="X46">
+        <v>126.4</v>
+      </c>
+      <c r="Y46">
+        <v>126.4</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>1240793617</v>
       </c>
@@ -3683,6 +4493,9 @@
       <c r="P47">
         <v>1</v>
       </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
       <c r="R47">
         <v>0</v>
       </c>
@@ -3695,8 +4508,23 @@
       <c r="U47" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0.8</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>1240770937</v>
       </c>
@@ -3745,6 +4573,9 @@
       <c r="P48">
         <v>1</v>
       </c>
+      <c r="Q48">
+        <v>126.4</v>
+      </c>
       <c r="R48">
         <v>126.4</v>
       </c>
@@ -3757,8 +4588,23 @@
       <c r="U48" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48">
+        <v>158</v>
+      </c>
+      <c r="W48">
+        <v>0.8</v>
+      </c>
+      <c r="X48">
+        <v>126.4</v>
+      </c>
+      <c r="Y48">
+        <v>126.4</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>1240770937</v>
       </c>
@@ -3807,6 +4653,9 @@
       <c r="P49">
         <v>1</v>
       </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
       <c r="R49">
         <v>0</v>
       </c>
@@ -3819,8 +4668,23 @@
       <c r="U49" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0.8</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50">
         <v>1240592753</v>
       </c>
@@ -3869,6 +4733,9 @@
       <c r="P50">
         <v>2</v>
       </c>
+      <c r="Q50">
+        <v>90.3</v>
+      </c>
       <c r="R50">
         <v>180.6</v>
       </c>
@@ -3881,8 +4748,23 @@
       <c r="U50" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50">
+        <v>129</v>
+      </c>
+      <c r="W50">
+        <v>0.7</v>
+      </c>
+      <c r="X50">
+        <v>90.3</v>
+      </c>
+      <c r="Y50">
+        <v>180.6</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51">
         <v>1240592753</v>
       </c>
@@ -3931,6 +4813,9 @@
       <c r="P51">
         <v>2</v>
       </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
       <c r="R51">
         <v>0</v>
       </c>
@@ -3943,8 +4828,23 @@
       <c r="U51" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0.7</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52">
         <v>1240579036</v>
       </c>
@@ -3993,6 +4893,9 @@
       <c r="P52">
         <v>1</v>
       </c>
+      <c r="Q52">
+        <v>90.3</v>
+      </c>
       <c r="R52">
         <v>90.3</v>
       </c>
@@ -4005,8 +4908,23 @@
       <c r="U52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52">
+        <v>129</v>
+      </c>
+      <c r="W52">
+        <v>0.7</v>
+      </c>
+      <c r="X52">
+        <v>90.3</v>
+      </c>
+      <c r="Y52">
+        <v>90.3</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53">
         <v>1240579036</v>
       </c>
@@ -4055,6 +4973,9 @@
       <c r="P53">
         <v>1</v>
       </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
       <c r="R53">
         <v>0</v>
       </c>
@@ -4067,8 +4988,23 @@
       <c r="U53" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0.7</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54">
         <v>1240486199</v>
       </c>
@@ -4117,6 +5053,9 @@
       <c r="P54">
         <v>1</v>
       </c>
+      <c r="Q54">
+        <v>90.3</v>
+      </c>
       <c r="R54">
         <v>90.3</v>
       </c>
@@ -4129,8 +5068,23 @@
       <c r="U54" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54">
+        <v>129</v>
+      </c>
+      <c r="W54">
+        <v>0.7</v>
+      </c>
+      <c r="X54">
+        <v>90.3</v>
+      </c>
+      <c r="Y54">
+        <v>90.3</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55">
         <v>1240486199</v>
       </c>
@@ -4179,6 +5133,9 @@
       <c r="P55">
         <v>1</v>
       </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
       <c r="R55">
         <v>0</v>
       </c>
@@ -4190,6 +5147,21 @@
       </c>
       <c r="U55" t="s">
         <v>130</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0.7</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
